--- a/biology/Microbiologie/Streptomyces_mobaraensis/Streptomyces_mobaraensis.xlsx
+++ b/biology/Microbiologie/Streptomyces_mobaraensis/Streptomyces_mobaraensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Streptomyces mobaraensis est une espèce de bactérie sporulée du genre Streptomyces[1],[4]. Streptomyces mobaraensis produit de la bléomycine, de la détoxine, de la piericidine A, de la piericidine B, du réticulol et de la transglutaminase[2],[5],[6],[7],[8],[9].
-Streptomyces mobaraensis est utilisé dans l'industrie alimentaire pour produire de la transglutaminase pour texturer les produits à base de viande et de poisson[10].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Streptomyces mobaraensis est une espèce de bactérie sporulée du genre Streptomyces,. Streptomyces mobaraensis produit de la bléomycine, de la détoxine, de la piericidine A, de la piericidine B, du réticulol et de la transglutaminase.
+Streptomyces mobaraensis est utilisé dans l'industrie alimentaire pour produire de la transglutaminase pour texturer les produits à base de viande et de poisson.
 </t>
         </is>
       </c>
